--- a/42_Tables_3/homework/5.xlsx
+++ b/42_Tables_3/homework/5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasty\Downloads\Файлы ДЗ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\42_Tables_3\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9537681F-4F4C-4DC0-87F5-8BBAF084863F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D549A-E325-4BB2-89BC-87073AD5C315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9AEF438-41D7-4CA0-A61E-C276B00E4026}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{C9AEF438-41D7-4CA0-A61E-C276B00E4026}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,17 +27,41 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>ДЕЙСТВИЯ</t>
+  </si>
+  <si>
+    <t>Вправо</t>
+  </si>
+  <si>
+    <t>Вниз</t>
+  </si>
+  <si>
+    <t>ТУПИКИ СЧИТАЕМ</t>
+  </si>
+  <si>
+    <t>из левой верхней клетки в правую нижнюю.</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>МИН</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +77,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -155,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
@@ -166,6 +214,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -481,13 +535,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABDF9B3-84AD-4B55-B765-EF8355B94160}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="6.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>11</v>
       </c>
@@ -534,7 +593,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>22</v>
       </c>
@@ -581,7 +640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>14</v>
       </c>
@@ -628,7 +687,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>33</v>
       </c>
@@ -675,7 +734,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>69</v>
       </c>
@@ -694,35 +753,35 @@
       <c r="F5" s="9">
         <v>13</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="11">
         <v>57</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11">
         <v>82</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="11">
         <v>14</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="11">
         <v>15</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="11">
         <v>42</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="11">
         <v>22</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="11">
         <v>4</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="11">
         <v>84</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="13">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>71</v>
       </c>
@@ -768,8 +827,11 @@
       <c r="O6" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>18</v>
       </c>
@@ -785,7 +847,7 @@
       <c r="E7" s="5">
         <v>98</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>64</v>
       </c>
       <c r="G7" s="9">
@@ -800,7 +862,7 @@
       <c r="J7" s="5">
         <v>25</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="11">
         <v>29</v>
       </c>
       <c r="L7" s="9">
@@ -815,8 +877,11 @@
       <c r="O7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -832,7 +897,7 @@
       <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>64</v>
       </c>
       <c r="G8" s="9">
@@ -847,7 +912,7 @@
       <c r="J8" s="5">
         <v>5</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="11">
         <v>7</v>
       </c>
       <c r="L8" s="9">
@@ -862,8 +927,11 @@
       <c r="O8" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>37</v>
       </c>
@@ -879,7 +947,7 @@
       <c r="E9" s="5">
         <v>79</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="11">
         <v>23</v>
       </c>
       <c r="G9" s="6">
@@ -894,7 +962,7 @@
       <c r="J9" s="7">
         <v>20</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="11">
         <v>44</v>
       </c>
       <c r="L9" s="9">
@@ -910,7 +978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -926,19 +994,19 @@
       <c r="E10" s="5">
         <v>75</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>17</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <v>75</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>7</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="11">
         <v>41</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="11">
         <v>18</v>
       </c>
       <c r="K10" s="9">
@@ -956,8 +1024,11 @@
       <c r="O10" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>42</v>
       </c>
@@ -973,7 +1044,7 @@
       <c r="E11" s="5">
         <v>19</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>60</v>
       </c>
       <c r="G11" s="9">
@@ -1004,7 +1075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>34</v>
       </c>
@@ -1020,7 +1091,7 @@
       <c r="E12" s="5">
         <v>85</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <v>49</v>
       </c>
       <c r="G12" s="9">
@@ -1050,8 +1121,11 @@
       <c r="O12" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -1067,7 +1141,7 @@
       <c r="E13" s="5">
         <v>35</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="11">
         <v>84</v>
       </c>
       <c r="G13" s="9">
@@ -1098,7 +1172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>21</v>
       </c>
@@ -1114,7 +1188,7 @@
       <c r="E14" s="5">
         <v>14</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="11">
         <v>60</v>
       </c>
       <c r="G14" s="9">
@@ -1144,8 +1218,14 @@
       <c r="O14" s="5">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1161,7 +1241,7 @@
       <c r="E15" s="7">
         <v>61</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="12">
         <v>12</v>
       </c>
       <c r="G15" s="6">
@@ -1191,8 +1271,944 @@
       <c r="O15" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="R15" s="15">
+        <v>1408</v>
+      </c>
+      <c r="T15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>A1</f>
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <f>A17+B1</f>
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:O17" si="0">B17+C1</f>
+        <v>44</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>561</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>671</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="0"/>
+        <v>734</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="0"/>
+        <v>801</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="0"/>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f>A17+A2</f>
+        <v>33</v>
+      </c>
+      <c r="B18" s="9">
+        <f>MIN(B17,A18)+B2</f>
+        <v>76</v>
+      </c>
+      <c r="C18" s="9">
+        <f>MIN(C17,B18)+C2</f>
+        <v>58</v>
+      </c>
+      <c r="D18" s="9">
+        <f>MIN(D17,C18)+D2</f>
+        <v>87</v>
+      </c>
+      <c r="E18" s="9">
+        <f>MIN(E17,D18)+E2</f>
+        <v>99</v>
+      </c>
+      <c r="F18" s="9">
+        <f>MIN(F17,E18)+F2</f>
+        <v>177</v>
+      </c>
+      <c r="G18" s="9">
+        <f>MIN(G17,F18)+G2</f>
+        <v>277</v>
+      </c>
+      <c r="H18" s="9">
+        <f>MIN(H17,G18)+H2</f>
+        <v>376</v>
+      </c>
+      <c r="I18" s="9">
+        <f>MIN(I17,H18)+I2</f>
+        <v>402</v>
+      </c>
+      <c r="J18" s="9">
+        <f>MIN(J17,I18)+J2</f>
+        <v>469</v>
+      </c>
+      <c r="K18" s="9">
+        <f>MIN(K17,J18)+K2</f>
+        <v>495</v>
+      </c>
+      <c r="L18" s="9">
+        <f>MIN(L17,K18)+L2</f>
+        <v>508</v>
+      </c>
+      <c r="M18" s="9">
+        <f>MIN(M17,L18)+M2</f>
+        <v>529</v>
+      </c>
+      <c r="N18" s="9">
+        <f>MIN(N17,M18)+N2</f>
+        <v>580</v>
+      </c>
+      <c r="O18" s="9">
+        <f>MIN(O17,N18)+O2</f>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" ref="A19:A31" si="1">A18+A3</f>
+        <v>47</v>
+      </c>
+      <c r="B19" s="9">
+        <f>MIN(B18,A19)+B3</f>
+        <v>68</v>
+      </c>
+      <c r="C19" s="9">
+        <f>MIN(C18,B19)+C3</f>
+        <v>62</v>
+      </c>
+      <c r="D19" s="9">
+        <f>MIN(D18,C19)+D3</f>
+        <v>87</v>
+      </c>
+      <c r="E19" s="9">
+        <f>MIN(E18,D19)+E3</f>
+        <v>110</v>
+      </c>
+      <c r="F19" s="9">
+        <f>MIN(F18,E19)+F3</f>
+        <v>153</v>
+      </c>
+      <c r="G19" s="9">
+        <f>MIN(G18,F19)+G3</f>
+        <v>224</v>
+      </c>
+      <c r="H19" s="9">
+        <f>MIN(H18,G19)+H3</f>
+        <v>315</v>
+      </c>
+      <c r="I19" s="9">
+        <f>MIN(I18,H19)+I3</f>
+        <v>415</v>
+      </c>
+      <c r="J19" s="9">
+        <f>MIN(J18,I19)+J3</f>
+        <v>514</v>
+      </c>
+      <c r="K19" s="9">
+        <f>MIN(K18,J19)+K3</f>
+        <v>588</v>
+      </c>
+      <c r="L19" s="9">
+        <f>MIN(L18,K19)+L3</f>
+        <v>599</v>
+      </c>
+      <c r="M19" s="9">
+        <f>MIN(M18,L19)+M3</f>
+        <v>557</v>
+      </c>
+      <c r="N19" s="9">
+        <f>MIN(N18,M19)+N3</f>
+        <v>655</v>
+      </c>
+      <c r="O19" s="9">
+        <f>MIN(O18,N19)+O3</f>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B20" s="9">
+        <f>MIN(B19,A20)+B4</f>
+        <v>73</v>
+      </c>
+      <c r="C20" s="9">
+        <f>MIN(C19,B20)+C4</f>
+        <v>64</v>
+      </c>
+      <c r="D20" s="9">
+        <f>MIN(D19,C20)+D4</f>
+        <v>65</v>
+      </c>
+      <c r="E20" s="9">
+        <f>MIN(E19,D20)+E4</f>
+        <v>82</v>
+      </c>
+      <c r="F20" s="9">
+        <f>MIN(F19,E20)+F4</f>
+        <v>87</v>
+      </c>
+      <c r="G20" s="9">
+        <f>MIN(G19,F20)+G4</f>
+        <v>184</v>
+      </c>
+      <c r="H20" s="9">
+        <f>MIN(H19,G20)+H4</f>
+        <v>222</v>
+      </c>
+      <c r="I20" s="9">
+        <f>MIN(I19,H20)+I4</f>
+        <v>293</v>
+      </c>
+      <c r="J20" s="9">
+        <f>MIN(J19,I20)+J4</f>
+        <v>358</v>
+      </c>
+      <c r="K20" s="9">
+        <f>MIN(K19,J20)+K4</f>
+        <v>457</v>
+      </c>
+      <c r="L20" s="9">
+        <f>MIN(L19,K20)+L4</f>
+        <v>557</v>
+      </c>
+      <c r="M20" s="9">
+        <f>MIN(M19,L20)+M4</f>
+        <v>654</v>
+      </c>
+      <c r="N20" s="9">
+        <f>MIN(N19,M20)+N4</f>
+        <v>748</v>
+      </c>
+      <c r="O20" s="14">
+        <f>MIN(O19,N20)+O4</f>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="B21" s="9">
+        <f>MIN(B20,A21)+B5</f>
+        <v>94</v>
+      </c>
+      <c r="C21" s="9">
+        <f>MIN(C20,B21)+C5</f>
+        <v>78</v>
+      </c>
+      <c r="D21" s="9">
+        <f>MIN(D20,C21)+D5</f>
+        <v>85</v>
+      </c>
+      <c r="E21" s="9">
+        <f>MIN(E20,D21)+E5</f>
+        <v>85</v>
+      </c>
+      <c r="F21" s="9">
+        <f>MIN(F20,E21)+F5</f>
+        <v>98</v>
+      </c>
+      <c r="G21" s="11">
+        <f>F21+G5</f>
+        <v>155</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" ref="H21:O21" si="2">G21+H5</f>
+        <v>237</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="2"/>
+        <v>418</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="B22" s="9">
+        <f>MIN(B21,A22)+B6</f>
+        <v>175</v>
+      </c>
+      <c r="C22" s="9">
+        <f>MIN(C21,B22)+C6</f>
+        <v>91</v>
+      </c>
+      <c r="D22" s="9">
+        <f>MIN(D21,C22)+D6</f>
+        <v>152</v>
+      </c>
+      <c r="E22" s="9">
+        <f>MIN(E21,D22)+E6</f>
+        <v>135</v>
+      </c>
+      <c r="F22" s="9">
+        <f>MIN(F21,E22)+F6</f>
+        <v>117</v>
+      </c>
+      <c r="G22" s="9">
+        <f>MIN(G21,F22)+G6</f>
+        <v>147</v>
+      </c>
+      <c r="H22" s="9">
+        <f>MIN(H21,G22)+H6</f>
+        <v>188</v>
+      </c>
+      <c r="I22" s="9">
+        <f>MIN(I21,H22)+I6</f>
+        <v>201</v>
+      </c>
+      <c r="J22" s="9">
+        <f>MIN(J21,I22)+J6</f>
+        <v>222</v>
+      </c>
+      <c r="K22" s="9">
+        <f>MIN(K21,J22)+K6</f>
+        <v>242</v>
+      </c>
+      <c r="L22" s="9">
+        <f>MIN(L21,K22)+L6</f>
+        <v>256</v>
+      </c>
+      <c r="M22" s="9">
+        <f>MIN(M21,L22)+M6</f>
+        <v>266</v>
+      </c>
+      <c r="N22" s="9">
+        <f>MIN(N21,M22)+N6</f>
+        <v>278</v>
+      </c>
+      <c r="O22" s="9">
+        <f>MIN(O21,N22)+O6</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="B23" s="9">
+        <f>MIN(B22,A23)+B7</f>
+        <v>268</v>
+      </c>
+      <c r="C23" s="9">
+        <f>MIN(C22,B23)+C7</f>
+        <v>168</v>
+      </c>
+      <c r="D23" s="9">
+        <f>MIN(D22,C23)+D7</f>
+        <v>177</v>
+      </c>
+      <c r="E23" s="9">
+        <f>MIN(E22,D23)+E7</f>
+        <v>233</v>
+      </c>
+      <c r="F23" s="11">
+        <f>F22+F7</f>
+        <v>181</v>
+      </c>
+      <c r="G23" s="9">
+        <f>MIN(G22,F23)+G7</f>
+        <v>168</v>
+      </c>
+      <c r="H23" s="9">
+        <f>MIN(H22,G23)+H7</f>
+        <v>185</v>
+      </c>
+      <c r="I23" s="9">
+        <f>MIN(I22,H23)+I7</f>
+        <v>269</v>
+      </c>
+      <c r="J23" s="9">
+        <f>MIN(J22,I23)+J7</f>
+        <v>247</v>
+      </c>
+      <c r="K23" s="11">
+        <f>K22+K7</f>
+        <v>271</v>
+      </c>
+      <c r="L23" s="9">
+        <f>MIN(L22,K23)+L7</f>
+        <v>311</v>
+      </c>
+      <c r="M23" s="9">
+        <f>MIN(M22,L23)+M7</f>
+        <v>330</v>
+      </c>
+      <c r="N23" s="9">
+        <f>MIN(N22,M23)+N7</f>
+        <v>301</v>
+      </c>
+      <c r="O23" s="9">
+        <f>MIN(O22,N23)+O7</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="B24" s="9">
+        <f>MIN(B23,A24)+B8</f>
+        <v>316</v>
+      </c>
+      <c r="C24" s="9">
+        <f>MIN(C23,B24)+C8</f>
+        <v>190</v>
+      </c>
+      <c r="D24" s="9">
+        <f>MIN(D23,C24)+D8</f>
+        <v>198</v>
+      </c>
+      <c r="E24" s="9">
+        <f>MIN(E23,D24)+E8</f>
+        <v>202</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" ref="F24:F31" si="3">F23+F8</f>
+        <v>245</v>
+      </c>
+      <c r="G24" s="9">
+        <f>MIN(G23,F24)+G8</f>
+        <v>237</v>
+      </c>
+      <c r="H24" s="9">
+        <f>MIN(H23,G24)+H8</f>
+        <v>190</v>
+      </c>
+      <c r="I24" s="9">
+        <f>MIN(I23,H24)+I8</f>
+        <v>201</v>
+      </c>
+      <c r="J24" s="9">
+        <f>MIN(J23,I24)+J8</f>
+        <v>206</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" ref="K24:K25" si="4">K23+K8</f>
+        <v>278</v>
+      </c>
+      <c r="L24" s="9">
+        <f>MIN(L23,K24)+L8</f>
+        <v>321</v>
+      </c>
+      <c r="M24" s="9">
+        <f>MIN(M23,L24)+M8</f>
+        <v>331</v>
+      </c>
+      <c r="N24" s="9">
+        <f>MIN(N23,M24)+N8</f>
+        <v>321</v>
+      </c>
+      <c r="O24" s="9">
+        <f>MIN(O23,N24)+O8</f>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+      <c r="B25" s="9">
+        <f>MIN(B24,A25)+B9</f>
+        <v>329</v>
+      </c>
+      <c r="C25" s="9">
+        <f>MIN(C24,B25)+C9</f>
+        <v>193</v>
+      </c>
+      <c r="D25" s="9">
+        <f>MIN(D24,C25)+D9</f>
+        <v>233</v>
+      </c>
+      <c r="E25" s="9">
+        <f>MIN(E24,D25)+E9</f>
+        <v>281</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="3"/>
+        <v>268</v>
+      </c>
+      <c r="G25" s="9">
+        <f>MIN(G24,F25)+G9</f>
+        <v>260</v>
+      </c>
+      <c r="H25" s="9">
+        <f>MIN(H24,G25)+H9</f>
+        <v>262</v>
+      </c>
+      <c r="I25" s="9">
+        <f>MIN(I24,H25)+I9</f>
+        <v>241</v>
+      </c>
+      <c r="J25" s="14">
+        <f>MIN(J24,I25)+J9</f>
+        <v>226</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="4"/>
+        <v>322</v>
+      </c>
+      <c r="L25" s="9">
+        <f>MIN(L24,K25)+L9</f>
+        <v>341</v>
+      </c>
+      <c r="M25" s="9">
+        <f>MIN(M24,L25)+M9</f>
+        <v>405</v>
+      </c>
+      <c r="N25" s="9">
+        <f>MIN(N24,M25)+N9</f>
+        <v>377</v>
+      </c>
+      <c r="O25" s="9">
+        <f>MIN(O24,N25)+O9</f>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="B26" s="9">
+        <f>MIN(B25,A26)+B10</f>
+        <v>369</v>
+      </c>
+      <c r="C26" s="9">
+        <f>MIN(C25,B26)+C10</f>
+        <v>203</v>
+      </c>
+      <c r="D26" s="9">
+        <f>MIN(D25,C26)+D10</f>
+        <v>220</v>
+      </c>
+      <c r="E26" s="9">
+        <f>MIN(E25,D26)+E10</f>
+        <v>295</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="3"/>
+        <v>285</v>
+      </c>
+      <c r="G26" s="11">
+        <f>F26+G10</f>
+        <v>360</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" ref="H26:J26" si="5">G26+H10</f>
+        <v>367</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="5"/>
+        <v>408</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="5"/>
+        <v>426</v>
+      </c>
+      <c r="K26" s="9">
+        <f>MIN(K25,J26)+K10</f>
+        <v>366</v>
+      </c>
+      <c r="L26" s="9">
+        <f>MIN(L25,K26)+L10</f>
+        <v>407</v>
+      </c>
+      <c r="M26" s="9">
+        <f>MIN(M25,L26)+M10</f>
+        <v>437</v>
+      </c>
+      <c r="N26" s="9">
+        <f>MIN(N25,M26)+N10</f>
+        <v>381</v>
+      </c>
+      <c r="O26" s="9">
+        <f>MIN(O25,N26)+O10</f>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="B27" s="9">
+        <f>MIN(B26,A27)+B11</f>
+        <v>329</v>
+      </c>
+      <c r="C27" s="9">
+        <f>MIN(C26,B27)+C11</f>
+        <v>220</v>
+      </c>
+      <c r="D27" s="9">
+        <f>MIN(D26,C27)+D11</f>
+        <v>242</v>
+      </c>
+      <c r="E27" s="9">
+        <f>MIN(E26,D27)+E11</f>
+        <v>261</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="G27" s="9">
+        <f>MIN(G26,F27)+G11</f>
+        <v>362</v>
+      </c>
+      <c r="H27" s="9">
+        <f>MIN(H26,G27)+H11</f>
+        <v>383</v>
+      </c>
+      <c r="I27" s="9">
+        <f>MIN(I26,H27)+I11</f>
+        <v>387</v>
+      </c>
+      <c r="J27" s="9">
+        <f>MIN(J26,I27)+J11</f>
+        <v>462</v>
+      </c>
+      <c r="K27" s="9">
+        <f>MIN(K26,J27)+K11</f>
+        <v>421</v>
+      </c>
+      <c r="L27" s="9">
+        <f>MIN(L26,K27)+L11</f>
+        <v>481</v>
+      </c>
+      <c r="M27" s="9">
+        <f>MIN(M26,L27)+M11</f>
+        <v>467</v>
+      </c>
+      <c r="N27" s="9">
+        <f>MIN(N26,M27)+N11</f>
+        <v>393</v>
+      </c>
+      <c r="O27" s="9">
+        <f>MIN(O26,N27)+O11</f>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+      <c r="B28" s="9">
+        <f>MIN(B27,A28)+B12</f>
+        <v>376</v>
+      </c>
+      <c r="C28" s="9">
+        <f>MIN(C27,B28)+C12</f>
+        <v>307</v>
+      </c>
+      <c r="D28" s="9">
+        <f>MIN(D27,C28)+D12</f>
+        <v>266</v>
+      </c>
+      <c r="E28" s="9">
+        <f>MIN(E27,D28)+E12</f>
+        <v>346</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="3"/>
+        <v>394</v>
+      </c>
+      <c r="G28" s="9">
+        <f>MIN(G27,F28)+G12</f>
+        <v>363</v>
+      </c>
+      <c r="H28" s="9">
+        <f>MIN(H27,G28)+H12</f>
+        <v>433</v>
+      </c>
+      <c r="I28" s="9">
+        <f>MIN(I27,H28)+I12</f>
+        <v>469</v>
+      </c>
+      <c r="J28" s="9">
+        <f>MIN(J27,I28)+J12</f>
+        <v>499</v>
+      </c>
+      <c r="K28" s="9">
+        <f>MIN(K27,J28)+K12</f>
+        <v>453</v>
+      </c>
+      <c r="L28" s="9">
+        <f>MIN(L27,K28)+L12</f>
+        <v>532</v>
+      </c>
+      <c r="M28" s="9">
+        <f>MIN(M27,L28)+M12</f>
+        <v>480</v>
+      </c>
+      <c r="N28" s="9">
+        <f>MIN(N27,M28)+N12</f>
+        <v>404</v>
+      </c>
+      <c r="O28" s="9">
+        <f>MIN(O27,N28)+O12</f>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="B29" s="9">
+        <f>MIN(B28,A29)+B13</f>
+        <v>371</v>
+      </c>
+      <c r="C29" s="9">
+        <f>MIN(C28,B29)+C13</f>
+        <v>390</v>
+      </c>
+      <c r="D29" s="9">
+        <f>MIN(D28,C29)+D13</f>
+        <v>304</v>
+      </c>
+      <c r="E29" s="9">
+        <f>MIN(E28,D29)+E13</f>
+        <v>339</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="3"/>
+        <v>478</v>
+      </c>
+      <c r="G29" s="9">
+        <f>MIN(G28,F29)+G13</f>
+        <v>427</v>
+      </c>
+      <c r="H29" s="9">
+        <f>MIN(H28,G29)+H13</f>
+        <v>508</v>
+      </c>
+      <c r="I29" s="9">
+        <f>MIN(I28,H29)+I13</f>
+        <v>520</v>
+      </c>
+      <c r="J29" s="9">
+        <f>MIN(J28,I29)+J13</f>
+        <v>506</v>
+      </c>
+      <c r="K29" s="9">
+        <f>MIN(K28,J29)+K13</f>
+        <v>502</v>
+      </c>
+      <c r="L29" s="9">
+        <f>MIN(L28,K29)+L13</f>
+        <v>507</v>
+      </c>
+      <c r="M29" s="9">
+        <f>MIN(M28,L29)+M13</f>
+        <v>496</v>
+      </c>
+      <c r="N29" s="9">
+        <f>MIN(N28,M29)+N13</f>
+        <v>415</v>
+      </c>
+      <c r="O29" s="9">
+        <f>MIN(O28,N29)+O13</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+      <c r="B30" s="9">
+        <f>MIN(B29,A30)+B14</f>
+        <v>464</v>
+      </c>
+      <c r="C30" s="9">
+        <f>MIN(C29,B30)+C14</f>
+        <v>427</v>
+      </c>
+      <c r="D30" s="9">
+        <f>MIN(D29,C30)+D14</f>
+        <v>359</v>
+      </c>
+      <c r="E30" s="9">
+        <f>MIN(E29,D30)+E14</f>
+        <v>353</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="3"/>
+        <v>538</v>
+      </c>
+      <c r="G30" s="9">
+        <f>MIN(G29,F30)+G14</f>
+        <v>448</v>
+      </c>
+      <c r="H30" s="9">
+        <f>MIN(H29,G30)+H14</f>
+        <v>477</v>
+      </c>
+      <c r="I30" s="9">
+        <f>MIN(I29,H30)+I14</f>
+        <v>480</v>
+      </c>
+      <c r="J30" s="9">
+        <f>MIN(J29,I30)+J14</f>
+        <v>485</v>
+      </c>
+      <c r="K30" s="9">
+        <f>MIN(K29,J30)+K14</f>
+        <v>495</v>
+      </c>
+      <c r="L30" s="9">
+        <f>MIN(L29,K30)+L14</f>
+        <v>561</v>
+      </c>
+      <c r="M30" s="9">
+        <f>MIN(M29,L30)+M14</f>
+        <v>540</v>
+      </c>
+      <c r="N30" s="9">
+        <f>MIN(N29,M30)+N14</f>
+        <v>458</v>
+      </c>
+      <c r="O30" s="9">
+        <f>MIN(O29,N30)+O14</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="B31" s="9">
+        <f>MIN(B30,A31)+B15</f>
+        <v>413</v>
+      </c>
+      <c r="C31" s="9">
+        <f>MIN(C30,B31)+C15</f>
+        <v>424</v>
+      </c>
+      <c r="D31" s="9">
+        <f>MIN(D30,C31)+D15</f>
+        <v>413</v>
+      </c>
+      <c r="E31" s="14">
+        <f>MIN(E30,D31)+E15</f>
+        <v>414</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="G31" s="9">
+        <f>MIN(G30,F31)+G15</f>
+        <v>546</v>
+      </c>
+      <c r="H31" s="9">
+        <f>MIN(H30,G31)+H15</f>
+        <v>499</v>
+      </c>
+      <c r="I31" s="9">
+        <f>MIN(I30,H31)+I15</f>
+        <v>534</v>
+      </c>
+      <c r="J31" s="9">
+        <f>MIN(J30,I31)+J15</f>
+        <v>563</v>
+      </c>
+      <c r="K31" s="9">
+        <f>MIN(K30,J31)+K15</f>
+        <v>586</v>
+      </c>
+      <c r="L31" s="9">
+        <f>MIN(L30,K31)+L15</f>
+        <v>595</v>
+      </c>
+      <c r="M31" s="9">
+        <f>MIN(M30,L31)+M15</f>
+        <v>568</v>
+      </c>
+      <c r="N31" s="9">
+        <f>MIN(N30,M31)+N15</f>
+        <v>507</v>
+      </c>
+      <c r="O31" s="14">
+        <f>MIN(O30,N31)+O15</f>
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
